--- a/biology/Botanique/Parc_des_Sources_de_la_Bièvre/Parc_des_Sources_de_la_Bièvre.xlsx
+++ b/biology/Botanique/Parc_des_Sources_de_la_Bièvre/Parc_des_Sources_de_la_Bièvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_Sources_de_la_Bi%C3%A8vre</t>
+          <t>Parc_des_Sources_de_la_Bièvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Sources de la Bièvre est situé à Guyancourt dans les Yvelines. Le Parc a été dessiné par le paysagiste Paul Soun et l'architecte Bertrand Lemoine en 1975. C'est l’artiste Dani Karavan qui réalise le Carré urbain en 1999. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_Sources_de_la_Bi%C3%A8vre</t>
+          <t>Parc_des_Sources_de_la_Bièvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc d'une superficie de 60 hectares assure la transition entre le quartier fortement urbanisé du centre commercial de Saint-Quentin-en-Yvelines et la vallée de la Bièvre site classé depuis le 7 juillet 2000[1]. Le parc assure aussi une liaison verte entre les quartiers du Parc, des Saules et des Garennes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc d'une superficie de 60 hectares assure la transition entre le quartier fortement urbanisé du centre commercial de Saint-Quentin-en-Yvelines et la vallée de la Bièvre site classé depuis le 7 juillet 2000. Le parc assure aussi une liaison verte entre les quartiers du Parc, des Saules et des Garennes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_des_Sources_de_la_Bi%C3%A8vre</t>
+          <t>Parc_des_Sources_de_la_Bièvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les jardins urbains</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sculptures monumentales de La Perspective de Marta Pan assurent la liaison entre le centre commercial lui-même et l'entrée du parc des Sources de la Bièvre. Trois sculptures composent ce cheminement : Les engouffrements, Les marches et La perspective. 
 Les engouffrements sont situés face à l’église Saint-Quentin-les-Sources de Montigny-le-Bretonneux. Les engouffrements sont constitués de trois symboles : le carré, le rond et le triangle qui dans la culture asiatique signifient : l'univers, la terre et la pensée.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_des_Sources_de_la_Bi%C3%A8vre</t>
+          <t>Parc_des_Sources_de_la_Bièvre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +603,12 @@
           <t>Espaces naturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étang des Roussières, qui présente une superficie de 5,2 hectares, termine[pas clair] le parc. Cet étang est aménagé dans les années 1970, sa fonction première étant de réguler les eaux pluviales des zones urbanisées. En période de fortes pluies, ces eaux sont stockées dans l'étang, puis rejetées dans le lit de la Bièvre, située en aval de l'étang, puis en période de sécheresse.
-Le bois des Roussières, situé sur ses berges, est actuellement géré par l’Office national des forêts (ONF). Ce bois est déjà signalé sur le plan d'intendance de 1787 ; il y est dénommé « plan de Trou »[2]. De même, on retrouve sur ce plan d'intendance les 2 mares qui existent toujours au pied du labyrinthe végétal.
+Le bois des Roussières, situé sur ses berges, est actuellement géré par l’Office national des forêts (ONF). Ce bois est déjà signalé sur le plan d'intendance de 1787 ; il y est dénommé « plan de Trou ». De même, on retrouve sur ce plan d'intendance les 2 mares qui existent toujours au pied du labyrinthe végétal.
 En continuité de ce bois, le « Jardin de l'Aqueduc », d'une superficie de 1,3 hectare, assure la jonction avec le quartier des Saules. Ce jardin est implanté au-dessus de l'aqueduc qui permettait d'amener l'eau depuis l'étang de Saint-Quentin à Trappes au parc du château de Versailles, d'où sa dénomination. À partir de ce jardin de l'Aqueduc, il est possible de rejoindre grâce à une passerelle piétonne, le hameau de Bouviers où se situe la source de la Bièvre.
 </t>
         </is>
